--- a/test.xlsx
+++ b/test.xlsx
@@ -53,9 +53,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,384 +434,392 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8.380000000000001" customWidth="1" min="1" max="1"/>
+    <col width="8.380000000000001" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>11月</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>太郎1</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>太郎2</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="99.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>1日</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="99.75" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>2日</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="99.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>3日</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="99.75" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>4日</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="99.75" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>5日</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7" ht="99.75" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>6日</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8" ht="99.75" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>7日</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="99.75" customHeight="1">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>8日</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="99.75" customHeight="1">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>9日</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="99.75" customHeight="1">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>10日</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="99.75" customHeight="1">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>11日</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="99.75" customHeight="1">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>12日</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14" ht="99.75" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>13日</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15" ht="99.75" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>14日</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="99.75" customHeight="1">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>15日</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="99.75" customHeight="1">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>16日</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="99.75" customHeight="1">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>17日</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="99.75" customHeight="1">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>18日</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="99.75" customHeight="1">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>19日</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21" ht="99.75" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>20日</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22" ht="99.75" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>21日</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="99.75" customHeight="1">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>22日</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="99.75" customHeight="1">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>23日</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="99.75" customHeight="1">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>24日</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="99.75" customHeight="1">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>25日</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="99.75" customHeight="1">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>26日</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28" ht="99.75" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>27日</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29" ht="99.75" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>28日</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="99.75" customHeight="1">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>29日</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="99.75" customHeight="1">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>30日</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
+    <row r="32" ht="99.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -826,384 +839,392 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8.380000000000001" customWidth="1" min="1" max="1"/>
+    <col width="8.380000000000001" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>11月</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>太郎1</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>太郎2</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="99.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>1日</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="99.75" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>2日</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="99.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>3日</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="99.75" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>4日</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="99.75" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>5日</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7" ht="99.75" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>6日</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8" ht="99.75" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>7日</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="99.75" customHeight="1">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>8日</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="99.75" customHeight="1">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>9日</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="99.75" customHeight="1">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>10日</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="99.75" customHeight="1">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>11日</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="99.75" customHeight="1">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>12日</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14" ht="99.75" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>13日</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15" ht="99.75" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>14日</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="99.75" customHeight="1">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>15日</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="99.75" customHeight="1">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>16日</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="99.75" customHeight="1">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>17日</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="99.75" customHeight="1">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>18日</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="99.75" customHeight="1">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>19日</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21" ht="99.75" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>20日</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22" ht="99.75" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>21日</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="99.75" customHeight="1">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>22日</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="99.75" customHeight="1">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>23日</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="99.75" customHeight="1">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>24日</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="99.75" customHeight="1">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>25日</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="99.75" customHeight="1">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>26日</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28" ht="99.75" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>27日</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29" ht="99.75" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>28日</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="99.75" customHeight="1">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>29日</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="99.75" customHeight="1">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>30日</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
+    <row r="32" ht="99.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1223,384 +1244,392 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8.380000000000001" customWidth="1" min="1" max="1"/>
+    <col width="8.380000000000001" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>11月</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>太郎1</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>太郎2</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="99.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>1日</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="99.75" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>2日</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="99.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>3日</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="99.75" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>4日</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="99.75" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>5日</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7" ht="99.75" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>6日</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8" ht="99.75" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>7日</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="99.75" customHeight="1">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>8日</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="99.75" customHeight="1">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>9日</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="99.75" customHeight="1">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>10日</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="99.75" customHeight="1">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>11日</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="99.75" customHeight="1">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>12日</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14" ht="99.75" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>13日</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15" ht="99.75" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>14日</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="99.75" customHeight="1">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>15日</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="99.75" customHeight="1">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>16日</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="99.75" customHeight="1">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>17日</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="99.75" customHeight="1">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>18日</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="99.75" customHeight="1">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>19日</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21" ht="99.75" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>20日</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22" ht="99.75" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>21日</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="99.75" customHeight="1">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>22日</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="99.75" customHeight="1">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>23日</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="99.75" customHeight="1">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>24日</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>(水)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="99.75" customHeight="1">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>25日</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>(木)</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="99.75" customHeight="1">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>26日</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>(金)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28" ht="99.75" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>27日</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>(土)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29" ht="99.75" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>28日</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>(日)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="99.75" customHeight="1">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>29日</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>(月)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="99.75" customHeight="1">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>30日</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>(火)</t>
         </is>
       </c>
     </row>
+    <row r="32" ht="99.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
